--- a/Summaries/ARG/Independiente Rivadavia_Gimnasia–LP_adv.xlsx
+++ b/Summaries/ARG/Independiente Rivadavia_Gimnasia–LP_adv.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="132">
   <si>
     <t>Div</t>
   </si>
@@ -239,6 +239,15 @@
     <t>8</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>ARG</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>Sarmiento</t>
   </si>
   <si>
+    <t>Huracan</t>
+  </si>
+  <si>
     <t>Gimnasia–LP</t>
   </si>
   <si>
@@ -263,12 +275,18 @@
     <t>Godoy Cruz</t>
   </si>
   <si>
+    <t>Union</t>
+  </si>
+  <si>
     <t>Velez Sarsfield</t>
   </si>
   <si>
     <t>Banfield</t>
   </si>
   <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -287,6 +305,9 @@
     <t>0-1</t>
   </si>
   <si>
+    <t>1-0</t>
+  </si>
+  <si>
     <t>3-1</t>
   </si>
   <si>
@@ -308,6 +329,12 @@
     <t>5-3</t>
   </si>
   <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -317,7 +344,7 @@
     <t>3-5</t>
   </si>
   <si>
-    <t>4-3</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Y</t>
@@ -335,6 +362,12 @@
     <t>Facundo Tello</t>
   </si>
   <si>
+    <t>Luis Lobo Medina</t>
+  </si>
+  <si>
+    <t>Fernando Rapallini</t>
+  </si>
+  <si>
     <t>Franco Acita</t>
   </si>
   <si>
@@ -344,6 +377,9 @@
     <t>Hernán Mastrángelo</t>
   </si>
   <si>
+    <t>Carlos Gareano</t>
+  </si>
+  <si>
     <t>2024-05-12-Lanus-Independiente Rivadavia</t>
   </si>
   <si>
@@ -353,6 +389,12 @@
     <t>2024-05-26-Sarmiento-Independiente Rivadavia</t>
   </si>
   <si>
+    <t>2024-06-04-Independiente Rivadavia-Union</t>
+  </si>
+  <si>
+    <t>2024-06-15-Huracan-Independiente Rivadavia</t>
+  </si>
+  <si>
     <t>2024-05-13-Gimnasia–LP-Velez Sarsfield</t>
   </si>
   <si>
@@ -363,6 +405,9 @@
   </si>
   <si>
     <t>2024-06-02-Instituto-Gimnasia–LP</t>
+  </si>
+  <si>
+    <t>2024-06-12-Gimnasia–LP-Barracas Central</t>
   </si>
 </sst>
 </file>
@@ -626,16 +671,16 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45424.0</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -644,7 +689,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
         <v>0.8</v>
@@ -683,7 +728,7 @@
         <v>12.0</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="V2" t="n">
         <v>2.0</v>
@@ -695,16 +740,16 @@
         <v>22.0</v>
       </c>
       <c r="Y2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Z2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AA2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AB2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AC2" t="n">
         <v>2.0</v>
@@ -713,10 +758,10 @@
         <v>1.0</v>
       </c>
       <c r="AE2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AF2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AG2" t="n">
         <v>2.0</v>
@@ -832,16 +877,16 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45430.0</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -850,7 +895,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I3" t="n">
         <v>0.4</v>
@@ -889,7 +934,7 @@
         <v>16.0</v>
       </c>
       <c r="U3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="V3" t="n">
         <v>0.0</v>
@@ -901,16 +946,16 @@
         <v>29.0</v>
       </c>
       <c r="Y3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Z3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AA3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AB3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AC3" t="n">
         <v>6.0</v>
@@ -919,10 +964,10 @@
         <v>0.0</v>
       </c>
       <c r="AE3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AF3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AG3" t="n">
         <v>0.0</v>
@@ -1038,16 +1083,16 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45438.0</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1056,7 +1101,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I4" t="n">
         <v>0.5</v>
@@ -1095,7 +1140,7 @@
         <v>15.0</v>
       </c>
       <c r="U4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V4" t="n">
         <v>1.0</v>
@@ -1107,16 +1152,16 @@
         <v>31.0</v>
       </c>
       <c r="Y4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Z4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AA4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AC4" t="n">
         <v>6.0</v>
@@ -1125,10 +1170,10 @@
         <v>1.0</v>
       </c>
       <c r="AE4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AF4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AG4" t="n">
         <v>1.0</v>
@@ -1244,28 +1289,28 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>45425.0</v>
+        <v>45447.0</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="J5" t="n">
         <v>1.3</v>
@@ -1274,175 +1319,175 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O5" t="n">
         <v>5.0</v>
       </c>
       <c r="P5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="n">
         <v>4.0</v>
       </c>
       <c r="R5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W5" t="n">
         <v>7.0</v>
       </c>
-      <c r="S5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6600.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1225.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1225.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="BL5" t="n">
         <v>4.0</v>
       </c>
-      <c r="W5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="BM5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BN5" t="n">
         <v>4.0</v>
       </c>
-      <c r="AH5" t="n">
-        <v>239.0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>240.0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>660.0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2629.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2640.0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>337.0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>33.0</v>
-      </c>
       <c r="BO5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>123.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="6">
@@ -1450,43 +1495,43 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" t="n" s="2">
-        <v>45430.0</v>
+        <v>45458.0</v>
       </c>
       <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
       <c r="F6" t="n">
         <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I6" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.0</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.0</v>
-      </c>
       <c r="M6" t="n">
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O6" t="n">
         <v>3.0</v>
@@ -1495,85 +1540,85 @@
         <v>3.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="R6" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="T6" t="n">
         <v>12.0</v>
       </c>
       <c r="U6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="V6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="X6" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AB6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="n">
         <v>5.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>600.0</v>
+        <v>1350.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>500.0</v>
+        <v>450.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000.0</v>
+        <v>450.0</v>
       </c>
       <c r="AP6" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AR6" t="n">
         <v>0.0</v>
@@ -1582,73 +1627,73 @@
         <v>0.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AV6" t="n">
         <v>0.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AX6" t="n">
         <v>0.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0</v>
+        <v>650.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.0</v>
+        <v>238.0</v>
       </c>
       <c r="BF6" t="n">
         <v>0.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.0</v>
+        <v>134.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0</v>
+        <v>238.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.0</v>
+        <v>207.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.0</v>
+        <v>445.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>85.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="7">
@@ -1656,37 +1701,37 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>45438.0</v>
+        <v>45425.0</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
         <v>3.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1695,166 +1740,166 @@
         <v>0.0</v>
       </c>
       <c r="O7" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="P7" t="n">
         <v>4.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R7" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="S7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W7" t="n">
         <v>11.0</v>
       </c>
-      <c r="T7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.0</v>
-      </c>
       <c r="X7" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Z7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AA7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AB7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AD7" t="n">
         <v>0.0</v>
       </c>
       <c r="AE7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>236.0</v>
+        <v>239.0</v>
       </c>
       <c r="AI7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2629.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2640.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
         <v>10.0</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1888.0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>240.0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AY7" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>64.0</v>
+        <v>164.0</v>
       </c>
       <c r="BF7" t="n">
         <v>0.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0</v>
+        <v>173.0</v>
       </c>
       <c r="BH7" t="n">
         <v>0.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>64.0</v>
+        <v>164.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0</v>
+        <v>173.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>64.0</v>
+        <v>337.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>64.0</v>
+        <v>42.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BO7" t="n">
         <v>0.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>74.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="8">
@@ -1862,127 +1907,127 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>45445.0</v>
+        <v>45430.0</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.0</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.0</v>
-      </c>
       <c r="L8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.0</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>10.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.0</v>
       </c>
       <c r="X8" t="n">
         <v>21.0</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AA8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>115.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>800.0</v>
+        <v>600.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>180.0</v>
+        <v>100.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>420.0</v>
+        <v>500.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>805.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1260.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.0</v>
@@ -1994,10 +2039,10 @@
         <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
         <v>0.0</v>
@@ -2006,61 +2051,61 @@
         <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
         <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>286.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
         <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
         <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>286.0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>436.0</v>
+        <v>0.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
         <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>96.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="9">
@@ -2068,37 +2113,37 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n" s="2">
-        <v>45445.0</v>
+        <v>45438.0</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
@@ -2107,166 +2152,784 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="P9" t="n">
         <v>4.0</v>
       </c>
       <c r="Q9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1888.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>45445.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.0</v>
       </c>
-      <c r="R9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="L10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>10.0</v>
       </c>
-      <c r="T9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="T10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W10" t="n">
         <v>7.0</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="AM10" t="n">
         <v>21.0</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AN10" t="n">
+        <v>805.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>45455.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U11" t="s">
         <v>101</v>
       </c>
-      <c r="Z9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="V11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>45455.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>6.0</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2.142857142857143</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>109.71428571428571</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>52.857142857142854</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>728.5714285714286</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>103.57142857142857</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>469.2857142857143</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>19.285714285714285</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>976.8571428571429</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>947.1428571428571</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>7.142857142857143</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>5.714285714285714</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>12.857142857142858</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>12.857142857142858</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>32.857142857142854</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>557.1428571428571</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>115.85714285714286</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>47.714285714285715</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>105.14285714285714</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>163.57142857142858</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>105.14285714285714</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>268.7142857142857</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>35.42857142857143</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>27.571428571428573</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>21.714285714285715</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>85.85714285714286</v>
+      <c r="Q12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>101</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1305.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>891.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>905.0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>326.6</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>92.7</v>
       </c>
     </row>
   </sheetData>
